--- a/HARE/Prova Somativa - 21.09.2023/AvaliaçãoSomativa.xlsx
+++ b/HARE/Prova Somativa - 21.09.2023/AvaliaçãoSomativa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Carlos\SENAI-2023\HARE\Prova Somativa - 21.09.2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8A8F7D6-CD48-41CE-A8D4-8A05700C5FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09E5CD5-3A2E-4199-87AB-DB6FDB1C84F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9A3DB300-C6B4-4CF0-AF14-471DE343F699}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{9A3DB300-C6B4-4CF0-AF14-471DE343F699}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>Placa-Mãe</t>
   </si>
@@ -127,18 +127,92 @@
   </si>
   <si>
     <t>Intel Core i5 12450H Alder Lake, 3.3Ghz, Cache 12MB | 16GB [2x 8GB - Dual Channel] DDR4, 3200Mhz | GeForce RTX 3050, 4GB GDDR6 | SSD M.2 NVME 1TB - 4ª Geração | Tela FHD, 144HZ, 15.6" | Windows 11 Pro</t>
+  </si>
+  <si>
+    <t>Licenças</t>
+  </si>
+  <si>
+    <t>Product Design &amp; Manufacturing Collection</t>
+  </si>
+  <si>
+    <t>https://www.autodesk.com.br/collections/product-design-manufacturing/overview?term=1-YEAR&amp;tab=subscription</t>
+  </si>
+  <si>
+    <t>R$ 8.448,00</t>
+  </si>
+  <si>
+    <t>Office 365 - Business Premium</t>
+  </si>
+  <si>
+    <t>Windows 11 Pro</t>
+  </si>
+  <si>
+    <t>Periféricos</t>
+  </si>
+  <si>
+    <t>Kit Teclado e Mouse Logitech MK235 Wireless</t>
+  </si>
+  <si>
+    <t>https://www.pichau.com.br/kit-teclado-e-mouse-logitech-mk235-wireless-preto-920-007903</t>
+  </si>
+  <si>
+    <t>MousePad Fortrek Ergonomico ERG102</t>
+  </si>
+  <si>
+    <t>https://www.pichau.com.br/mousepad-fortrek-ergonomico-erg102-preto-73283</t>
+  </si>
+  <si>
+    <t>Monitor LG UltraGear, 24" IPS, FHD, 1ms, 144Hz, FreeSync, DP/HDMI</t>
+  </si>
+  <si>
+    <t>https://www.pichau.com.br/impressora-brother-dcp1602-multifuncional-laser-monocromatico-110v-dcp-1602</t>
+  </si>
+  <si>
+    <t>https://www.pichau.com.br/monitor-gamer-lg-ultragear-24-pol-ips-fhd-1ms-144hz-freesync-premium-dp-hdmi-24gn60r-b</t>
+  </si>
+  <si>
+    <t>Impressora Brother DCP1602, Multifuncional, Laser Monocromatico, 110V</t>
+  </si>
+  <si>
+    <t>Projetor Benq MS550, 3600 Ansi Lumens, HDMI, Branco</t>
+  </si>
+  <si>
+    <t>https://www.pichau.com.br/projetor-benq-ms550-3600-ansi-lumens-hdmi-branco-9h-jj477-13l</t>
+  </si>
+  <si>
+    <t>Serviços</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -153,7 +227,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -176,17 +250,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -194,19 +315,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -523,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C49666-31AD-47E6-BDB6-2E336167AF72}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,302 +678,444 @@
     <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="82" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="2">
         <v>629.99</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
         <v>829.99</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="2">
         <v>319.98</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="2">
         <v>529.89</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="2">
         <v>1699</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="2">
         <v>1287.75</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="2">
         <v>219.9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="2">
         <v>202.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="2">
         <v>499.9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
         <f>SUM(C3:C11)</f>
         <v>6218.9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
         <f>C13*3</f>
         <v>18656.699999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="6">
         <v>659.9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="6">
         <v>599</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="6">
         <v>159.99</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="6">
         <v>179.99</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="6">
         <v>1599</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="6">
         <v>439.99</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="6">
         <v>219.9</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="6">
         <v>202.5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="9">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="6">
         <f>SUM(C18:C25)</f>
         <v>4060.27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="9">
         <v>6417.8</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="5">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="9"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="9"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="2">
         <f>C31*2</f>
         <v>12835.6</v>
       </c>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="16">
+        <v>11519</v>
+      </c>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="17"/>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="1:6" ht="33" x14ac:dyDescent="0.6">
+      <c r="A42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="20">
+        <f>1599*3</f>
+        <v>4797</v>
+      </c>
+      <c r="D42" s="19"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="1">
+        <v>135.9</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="1">
+        <v>1099.9000000000001</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="1">
+        <v>2099.9</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="1">
+        <v>2699.9</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="21"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="17">
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="C31:C34"/>

--- a/HARE/Prova Somativa - 21.09.2023/AvaliaçãoSomativa.xlsx
+++ b/HARE/Prova Somativa - 21.09.2023/AvaliaçãoSomativa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Carlos\SENAI-2023\HARE\Prova Somativa - 21.09.2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09E5CD5-3A2E-4199-87AB-DB6FDB1C84F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D555E3A-5157-4CCA-A926-2D32A1586A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{9A3DB300-C6B4-4CF0-AF14-471DE343F699}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9A3DB300-C6B4-4CF0-AF14-471DE343F699}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>Placa-Mãe</t>
   </si>
@@ -178,20 +178,16 @@
   </si>
   <si>
     <t>https://www.pichau.com.br/projetor-benq-ms550-3600-ansi-lumens-hdmi-branco-9h-jj477-13l</t>
-  </si>
-  <si>
-    <t>Serviços</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,19 +196,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color rgb="FF212121"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -227,7 +219,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -250,46 +242,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -309,46 +266,29 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -667,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C49666-31AD-47E6-BDB6-2E336167AF72}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,28 +623,25 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -715,7 +652,7 @@
         <v>629.99</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -726,7 +663,7 @@
         <v>829.99</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -737,7 +674,7 @@
         <v>319.98</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -748,7 +685,7 @@
         <v>529.89</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -759,7 +696,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -770,7 +707,7 @@
         <v>1287.75</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -781,7 +718,7 @@
         <v>219.9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -792,7 +729,7 @@
         <v>202.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -803,33 +740,34 @@
         <v>499.9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <f>SUM(C3:C11)</f>
         <v>6218.9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <f>C13*3</f>
         <v>18656.699999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="14" t="s">
         <v>12</v>
       </c>
     </row>
@@ -928,200 +866,187 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="12">
         <v>6417.8</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="9"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="9"/>
-      <c r="F33" s="10"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="9"/>
-      <c r="F34" s="10"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
         <f>C31*2</f>
         <v>12835.6</v>
       </c>
-      <c r="F35" s="10"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-    </row>
-    <row r="39" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="16">
+      <c r="B39" s="11"/>
+      <c r="C39" s="2">
         <v>11519</v>
       </c>
-      <c r="F39" s="12"/>
-    </row>
-    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
+      <c r="D39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="B40" s="11"/>
-      <c r="C40" s="17"/>
-      <c r="F40" s="12"/>
-    </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="18" t="s">
+      <c r="C40" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F41" s="13"/>
-    </row>
-    <row r="42" spans="1:6" ht="33" x14ac:dyDescent="0.6">
-      <c r="A42" s="1" t="s">
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="20">
+      <c r="B41" s="11"/>
+      <c r="C41" s="2">
         <f>1599*3</f>
         <v>4797</v>
       </c>
-      <c r="D42" s="19"/>
-      <c r="F42" s="10"/>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
+      <c r="A44" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="2">
+        <v>135.9</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="1">
-        <v>135.9</v>
+      <c r="A45" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="2">
+        <v>22.5</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="1">
-        <v>22.5</v>
+      <c r="A46" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="2">
+        <v>1099.9000000000001</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="1">
-        <v>1099.9000000000001</v>
+      <c r="A47" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="2">
+        <v>2099.9</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="1">
-        <v>2099.9</v>
+      <c r="A48" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="2">
+        <v>2699.9</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="1">
-        <v>2699.9</v>
-      </c>
-      <c r="D49" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="21"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
+    <row r="49" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A46:B46"/>
+  <mergeCells count="16">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A40:B40"/>
     <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="C31:C34"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A45:B45"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
